--- a/cmd/v2_mi_v3/big_bld_group/大龄练习2025成绩2.xlsx
+++ b/cmd/v2_mi_v3/big_bld_group/大龄练习2025成绩2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12075" tabRatio="688"/>
+    <workbookView windowWidth="28800" windowHeight="12075" tabRatio="688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="速拧" sheetId="113" r:id="rId1"/>
@@ -1273,7 +1273,7 @@
   <sheetPr/>
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -5248,8 +5248,8 @@
   <sheetPr/>
   <dimension ref="A1:D1078"/>
   <sheetViews>
-    <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="F607" sqref="F607"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="H236" sqref="H236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7960,7 +7960,7 @@
         <v>5</v>
       </c>
       <c r="D193" s="1">
-        <v>12.52</v>
+        <v>72.52</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -8002,7 +8002,7 @@
         <v>5</v>
       </c>
       <c r="D196" s="1">
-        <v>39.33</v>
+        <v>99.33</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -8632,7 +8632,7 @@
         <v>5</v>
       </c>
       <c r="D241" s="1">
-        <v>1.03</v>
+        <v>61.03</v>
       </c>
     </row>
     <row r="242" spans="1:4">
